--- a/Planung/Ablauf.xlsx
+++ b/Planung/Ablauf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah Wiederhold\Desktop\Design_Sound\Planung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8781B136-85CD-4D80-92AE-A9D00D0B0517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CA7E62-4D30-462C-AECB-8882F272B6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="44">
   <si>
     <t>Details</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>zu erstellen / zu bearbeiten</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -295,14 +298,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5B5B"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -342,297 +338,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF37A76F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF02BE76"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF37A76F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF02BE76"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF37A76F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF02AE6C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF37A76F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1FB37B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF37A76F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1FB37B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF37A76F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1FB37B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF37A76F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF37A76F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF37A76F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF7C80"/>
         </patternFill>
       </fill>
     </dxf>
@@ -927,7 +632,7 @@
   <dimension ref="B3:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1157,7 +862,9 @@
       <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
@@ -1645,26 +1352,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D17 D19:D22">
-    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="anzupassen">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="anzupassen">
       <formula>NOT(ISERROR(SEARCH("anzupassen",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="zu bearbeiten">
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="zu bearbeiten">
       <formula>NOT(ISERROR(SEARCH("zu bearbeiten",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="zu erstellen">
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="zu erstellen">
       <formula>NOT(ISERROR(SEARCH("zu erstellen",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="anzupassen an Game">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="anzupassen an Game">
       <formula>NOT(ISERROR(SEARCH("anzupassen an Game",D18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="zu erstellen">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="zu erstellen">
       <formula>NOT(ISERROR(SEARCH("zu erstellen",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="zu erstellen">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="zu erstellen">
       <formula>NOT(ISERROR(SEARCH("zu erstellen",D1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Planung/Ablauf.xlsx
+++ b/Planung/Ablauf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah Wiederhold\Desktop\Design_Sound\Planung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CA7E62-4D30-462C-AECB-8882F272B6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CD93A9-E7D1-48C3-AE62-2DFAB9F8286A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="45">
   <si>
     <t>Details</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>fertig zum Einfügen in Game</t>
   </si>
 </sst>
 </file>
@@ -269,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -294,11 +297,98 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF02BE76"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5B5B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF02BE76"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5B5B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF02BE76"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF02BE76"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -631,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -838,7 +928,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
@@ -893,8 +983,8 @@
         <v>28</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="3" t="s">
-        <v>25</v>
+      <c r="D13" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>29</v>
@@ -1028,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>5</v>
@@ -1340,7 +1430,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H5:L24">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1352,27 +1442,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D17 D19:D22">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="anzupassen">
-      <formula>NOT(ISERROR(SEARCH("anzupassen",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="zu bearbeiten">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="zu bearbeiten">
       <formula>NOT(ISERROR(SEARCH("zu bearbeiten",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="zu erstellen">
+    <cfRule type="containsText" dxfId="3" priority="10" operator="containsText" text="zu erstellen">
       <formula>NOT(ISERROR(SEARCH("zu erstellen",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="anzupassen an Game">
-      <formula>NOT(ISERROR(SEARCH("anzupassen an Game",D18)))</formula>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="zu erstellen">
+      <formula>NOT(ISERROR(SEARCH("zu erstellen",D1)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="zu erstellen">
       <formula>NOT(ISERROR(SEARCH("zu erstellen",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="zu erstellen">
-      <formula>NOT(ISERROR(SEARCH("zu erstellen",D1)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="fertig zum Einfügen in Game">
+      <formula>NOT(ISERROR(SEARCH("fertig zum Einfügen in Game",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planung/Ablauf.xlsx
+++ b/Planung/Ablauf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah Wiederhold\Desktop\Design_Sound\Planung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CD93A9-E7D1-48C3-AE62-2DFAB9F8286A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E000412A-A6AB-47DE-BF90-D5065B8F1503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -304,7 +304,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -337,97 +337,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF02BE76"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5B5B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF02BE76"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF02BE76"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5B5B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF02BE76"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF37A76F"/>
         </patternFill>
       </fill>
     </dxf>
@@ -721,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -928,7 +837,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
@@ -956,7 +865,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>27</v>

--- a/Planung/Ablauf.xlsx
+++ b/Planung/Ablauf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah Wiederhold\Desktop\Design_Sound\Planung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E000412A-A6AB-47DE-BF90-D5065B8F1503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDCB6A3-BBEE-46DB-A476-EF3D312EA663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="47">
   <si>
     <t>Details</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>fertig zum Einfügen in Game</t>
+  </si>
+  <si>
+    <t>Weltraum Theme (Dark)</t>
+  </si>
+  <si>
+    <t>Loop-fähig</t>
   </si>
 </sst>
 </file>
@@ -630,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1164,16 +1170,28 @@
       </c>
     </row>
     <row r="23" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="3">
+        <v>10</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="L23" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>

--- a/Planung/Ablauf.xlsx
+++ b/Planung/Ablauf.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah Wiederhold\Desktop\Design_Sound\Planung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDCB6A3-BBEE-46DB-A476-EF3D312EA663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03D4FA3-953C-4656-8FAA-56D4CF84BCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="53">
   <si>
     <t>Details</t>
   </si>
@@ -132,21 +132,9 @@
     <t>Disturbance Noise</t>
   </si>
   <si>
-    <t>Character Sound Yippi</t>
-  </si>
-  <si>
     <t>bei Auswahl eines bestimmten Characters</t>
   </si>
   <si>
-    <t>Character Sound Here we go again</t>
-  </si>
-  <si>
-    <t>Character Sound Knurren</t>
-  </si>
-  <si>
-    <t>Character Sound Alien Geräusche</t>
-  </si>
-  <si>
     <t>Aufgaben nach Priorität markiertt:</t>
   </si>
   <si>
@@ -166,6 +154,36 @@
   </si>
   <si>
     <t>Loop-fähig</t>
+  </si>
+  <si>
+    <t>Character Sound Alien Oktopus</t>
+  </si>
+  <si>
+    <t>Character Sound Drache</t>
+  </si>
+  <si>
+    <t>Character Sound Roboter</t>
+  </si>
+  <si>
+    <t>Character Sound Marsmännchen</t>
+  </si>
+  <si>
+    <t>Character Sound Spaceman</t>
+  </si>
+  <si>
+    <t>Drachenlord in mein Audi Hook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Technik siegt" mit sehr viel spacigen Effekten </t>
+  </si>
+  <si>
+    <t>"Erdlinge müssen vernichtet werden" mit Verzerrung</t>
+  </si>
+  <si>
+    <t>"Für die Galaxys" mit heroischer Stimme</t>
+  </si>
+  <si>
+    <t>glibschiger Sound (Ork Geräusch pitchen mit Effekten)</t>
   </si>
 </sst>
 </file>
@@ -310,11 +328,11 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF02BE76"/>
+          <bgColor rgb="FFFF5B5B"/>
         </patternFill>
       </fill>
     </dxf>
@@ -328,7 +346,28 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF02BE76"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF5B5B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF02BE76"/>
         </patternFill>
       </fill>
     </dxf>
@@ -634,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:L46"/>
+  <dimension ref="B3:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,10 +695,10 @@
   <sheetData>
     <row r="3" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -811,7 +850,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>21</v>
@@ -868,10 +907,10 @@
         <v>26</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>27</v>
@@ -899,7 +938,7 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>29</v>
@@ -1033,7 +1072,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>5</v>
@@ -1059,23 +1098,25 @@
     </row>
     <row r="19" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="F19" s="3">
         <v>20</v>
       </c>
       <c r="H19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>12</v>
@@ -1087,23 +1128,25 @@
     </row>
     <row r="20" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="F20" s="3">
         <v>20</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>12</v>
@@ -1115,23 +1158,25 @@
     </row>
     <row r="21" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="F21" s="3">
         <v>20</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>12</v>
@@ -1143,23 +1188,25 @@
     </row>
     <row r="22" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="F22" s="3">
         <v>20</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>12</v>
@@ -1171,46 +1218,71 @@
     </row>
     <row r="23" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="3">
+        <v>20</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="3">
-        <v>10</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="3"/>
+      <c r="I23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="5"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
+      <c r="H24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
     </row>
     <row r="26" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
@@ -1352,11 +1424,18 @@
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
       <c r="F46" s="6"/>
     </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F47" s="6"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="H5:L24">
+  <conditionalFormatting sqref="H5:L18 H24:L25 I19:L23">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -1368,23 +1447,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D17 D19:D22">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="zu bearbeiten">
+  <conditionalFormatting sqref="D7:D17 D19:D23">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="zu bearbeiten">
       <formula>NOT(ISERROR(SEARCH("zu bearbeiten",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="10" operator="containsText" text="zu erstellen">
+    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="zu erstellen">
       <formula>NOT(ISERROR(SEARCH("zu erstellen",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="zu erstellen">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="fertig zum Einfügen in Game">
+      <formula>NOT(ISERROR(SEARCH("fertig zum Einfügen in Game",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="zu erstellen">
       <formula>NOT(ISERROR(SEARCH("zu erstellen",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="zu erstellen">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="zu erstellen">
       <formula>NOT(ISERROR(SEARCH("zu erstellen",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="fertig zum Einfügen in Game">
-      <formula>NOT(ISERROR(SEARCH("fertig zum Einfügen in Game",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planung/Ablauf.xlsx
+++ b/Planung/Ablauf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah Wiederhold\Desktop\Design_Sound\Planung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03D4FA3-953C-4656-8FAA-56D4CF84BCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA479B0-7CCD-4042-9653-D09D9A0E812C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="57">
   <si>
     <t>Details</t>
   </si>
@@ -36,9 +36,6 @@
     <t>wenn Logo von "Entwicklern" kommt</t>
   </si>
   <si>
-    <t>Bass Transition</t>
-  </si>
-  <si>
     <t>nach Logo, während Überblende</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>Priorität</t>
   </si>
   <si>
-    <t>Menu Theme</t>
-  </si>
-  <si>
     <t>Hauptmenü, Dauerschleife</t>
   </si>
   <si>
@@ -102,9 +96,6 @@
     <t>Gameover</t>
   </si>
   <si>
-    <t>zu bearbeiten</t>
-  </si>
-  <si>
     <t>Steam Pipe Sound</t>
   </si>
   <si>
@@ -117,15 +108,6 @@
     <t>sehr metallisch, erinnert zu sehr an Flugzeug, Sound sanfter machen</t>
   </si>
   <si>
-    <t>Starcraft Hangar</t>
-  </si>
-  <si>
-    <t>Sound kürzen</t>
-  </si>
-  <si>
-    <t>anzupassen an Game</t>
-  </si>
-  <si>
     <t>Metallic Noise</t>
   </si>
   <si>
@@ -135,9 +117,6 @@
     <t>bei Auswahl eines bestimmten Characters</t>
   </si>
   <si>
-    <t>Aufgaben nach Priorität markiertt:</t>
-  </si>
-  <si>
     <t>Aufgaben nach Aufwand markiert:</t>
   </si>
   <si>
@@ -171,9 +150,6 @@
     <t>Character Sound Spaceman</t>
   </si>
   <si>
-    <t>Drachenlord in mein Audi Hook</t>
-  </si>
-  <si>
     <t xml:space="preserve">"Technik siegt" mit sehr viel spacigen Effekten </t>
   </si>
   <si>
@@ -184,6 +160,42 @@
   </si>
   <si>
     <t>glibschiger Sound (Ork Geräusch pitchen mit Effekten)</t>
+  </si>
+  <si>
+    <t>Dark / Bass Transition</t>
+  </si>
+  <si>
+    <t>Aufgaben nach Priorität markiert:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technik siegt mit sehr viel spacigen Effekten </t>
+  </si>
+  <si>
+    <t>Für die Galaxys mit heroischer Stimme</t>
+  </si>
+  <si>
+    <t>Erdlinge müssen vernichtet werden mit Verzerrung</t>
+  </si>
+  <si>
+    <t>Zuständigkeit</t>
+  </si>
+  <si>
+    <t>Noah &amp; Belana</t>
+  </si>
+  <si>
+    <t>Lukas</t>
+  </si>
+  <si>
+    <t>Main Theme</t>
+  </si>
+  <si>
+    <t>Button Click</t>
+  </si>
+  <si>
+    <t>Drücken / Hovern eines Buttons im Hauptmenü</t>
+  </si>
+  <si>
+    <t>verschiedene Versionen fertig, Auswahl welches am besten zum Spiel passt</t>
   </si>
 </sst>
 </file>
@@ -223,7 +235,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -292,11 +304,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -324,11 +380,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5B5B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF02BE76"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5B5B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF02BE76"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5B5B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF02BE76"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -673,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:L47"/>
+  <dimension ref="B3:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,359 +847,406 @@
     <col min="2" max="2" width="34.44140625" customWidth="1"/>
     <col min="3" max="3" width="42.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="66" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" customWidth="1"/>
+    <col min="9" max="9" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="67.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:12" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:14" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>6</v>
+      <c r="F5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="18"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="20"/>
+      <c r="N6" s="18"/>
+    </row>
+    <row r="7" spans="2:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="F7" s="14">
+        <v>50</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="18">
+        <v>50</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3">
-        <v>50</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="14">
+        <v>40</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="I8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="K8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="18">
+        <v>40</v>
+      </c>
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" spans="2:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="14">
+        <v>40</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="I9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="18">
+        <v>40</v>
+      </c>
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" spans="2:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="14">
+        <v>40</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="I10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="L10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="18">
+        <v>40</v>
+      </c>
+      <c r="N10" s="18"/>
+    </row>
+    <row r="11" spans="2:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="3">
-        <v>40</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="14">
+        <v>30</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="I11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="3">
-        <v>40</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="3">
-        <v>40</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+      <c r="K11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="18">
+        <v>30</v>
+      </c>
+      <c r="N11" s="18"/>
+    </row>
+    <row r="12" spans="2:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3">
-        <v>30</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="F12" s="14">
+        <v>20</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="J12" s="4"/>
+      <c r="K12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="M12" s="18">
+        <v>20</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="3">
-        <v>20</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="3">
-        <v>20</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="14">
+        <v>20</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="J13" s="4"/>
       <c r="K13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="18">
+        <v>20</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="3">
-        <v>20</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F14" s="14">
+        <v>10</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="4"/>
       <c r="K14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="18">
+        <v>10</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="3">
-        <v>10</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="14">
+        <v>10</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="I15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="18">
+        <v>10</v>
+      </c>
+      <c r="N15" s="18"/>
+    </row>
+    <row r="16" spans="2:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="3">
-        <v>10</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="14">
+        <v>10</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="I16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="18">
+        <v>10</v>
+      </c>
+      <c r="N16" s="18"/>
+    </row>
+    <row r="17" spans="2:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>1</v>
       </c>
@@ -1044,399 +1254,490 @@
         <v>2</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="3">
-        <v>10</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="F17" s="14">
+        <v>10</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="I17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="18">
+        <v>10</v>
+      </c>
+      <c r="N17" s="18"/>
+    </row>
+    <row r="18" spans="2:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="F18" s="14">
+        <v>20</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="18">
+        <v>20</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="14">
+        <v>20</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" s="18">
+        <v>20</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="14">
+        <v>20</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="18">
+        <v>20</v>
+      </c>
+      <c r="N20" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="14">
+        <v>20</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21" s="18">
+        <v>20</v>
+      </c>
+      <c r="N21" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>20</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
+      <c r="C22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="3">
-        <v>20</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="F22" s="14">
+        <v>20</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="3">
-        <v>20</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="M22" s="18">
+        <v>20</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="14">
+        <v>20</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="3">
-        <v>20</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="M23" s="18">
+        <v>20</v>
+      </c>
+      <c r="N23" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="3">
-        <v>20</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="3">
-        <v>20</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="3">
-        <v>10</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="5"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="15">
+        <v>30</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M24" s="15">
+        <v>30</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+    </row>
+    <row r="26" spans="2:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="2:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="2:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="2:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="2:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="2:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="2:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" spans="2:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="2:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="2:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="2:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+    </row>
+    <row r="35" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="2:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="2:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+    </row>
+    <row r="37" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="2:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+    </row>
+    <row r="38" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="2:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+    </row>
+    <row r="39" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="2:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+    </row>
+    <row r="40" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="2:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+    </row>
+    <row r="41" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="2:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+    </row>
+    <row r="42" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="2:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+    </row>
+    <row r="43" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" spans="2:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+    </row>
+    <row r="44" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-    </row>
-    <row r="45" spans="2:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+    </row>
+    <row r="45" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="2:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F47" s="6"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H5:L18 H24:L25 I19:L23">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="D7:D17 D19:D23">
+    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="zu bearbeiten">
+      <formula>NOT(ISERROR(SEARCH("zu bearbeiten",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="zu erstellen">
+      <formula>NOT(ISERROR(SEARCH("zu erstellen",D7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="fertig zum Einfügen in Game">
+      <formula>NOT(ISERROR(SEARCH("fertig zum Einfügen in Game",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="zu erstellen">
+      <formula>NOT(ISERROR(SEARCH("zu erstellen",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="zu erstellen">
+      <formula>NOT(ISERROR(SEARCH("zu erstellen",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:M18 J19:M23">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1447,23 +1748,39 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D17 D19:D23">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="zu bearbeiten">
-      <formula>NOT(ISERROR(SEARCH("zu bearbeiten",D7)))</formula>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="fertig zum Einfügen in Game">
+      <formula>NOT(ISERROR(SEARCH("fertig zum Einfügen in Game",K25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="zu erstellen">
-      <formula>NOT(ISERROR(SEARCH("zu erstellen",D7)))</formula>
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="zu erstellen">
+      <formula>NOT(ISERROR(SEARCH("zu erstellen",K25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="zu erstellen">
+      <formula>NOT(ISERROR(SEARCH("zu erstellen",K25)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="fertig zum Einfügen in Game">
-      <formula>NOT(ISERROR(SEARCH("fertig zum Einfügen in Game",D1)))</formula>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="zu erstellen">
-      <formula>NOT(ISERROR(SEARCH("zu erstellen",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="zu erstellen">
-      <formula>NOT(ISERROR(SEARCH("zu erstellen",D1)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planung/Ablauf.xlsx
+++ b/Planung/Ablauf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah Wiederhold\Desktop\Design_Sound\Planung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA479B0-7CCD-4042-9653-D09D9A0E812C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2B3082-92AC-4840-9EB7-2638CF9CB746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="59">
   <si>
     <t>Details</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>verschiedene Versionen fertig, Auswahl welches am besten zum Spiel passt</t>
+  </si>
+  <si>
+    <t>zu bearbeiten</t>
+  </si>
+  <si>
+    <t>noch etwas mehr space-sound</t>
   </si>
 </sst>
 </file>
@@ -414,7 +420,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="45">
     <dxf>
       <fill>
         <patternFill>
@@ -425,6 +431,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF02BE76"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF7C80"/>
         </patternFill>
       </fill>
@@ -432,6 +452,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5B5B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF02BE76"/>
         </patternFill>
       </fill>
@@ -446,6 +487,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF02BE76"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF7C80"/>
         </patternFill>
       </fill>
@@ -453,6 +508,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5B5B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF02BE76"/>
         </patternFill>
       </fill>
@@ -467,7 +550,112 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF02BE76"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5B5B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF02BE76"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5B5B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF02BE76"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5B5B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF02BE76"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5B5B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -552,6 +740,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFBABAB"/>
       <color rgb="FFFF7C80"/>
       <color rgb="FFFF5B5B"/>
       <color rgb="FFFF5050"/>
@@ -839,7 +1028,7 @@
   <dimension ref="B3:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1360,9 +1549,11 @@
         <v>29</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="F20" s="14">
         <v>20</v>
       </c>
@@ -1376,9 +1567,11 @@
         <v>29</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L20" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="M20" s="18">
         <v>20</v>
       </c>
@@ -1718,21 +1911,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D7:D17 D19:D23">
-    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="zu bearbeiten">
+    <cfRule type="containsText" dxfId="20" priority="14" operator="containsText" text="zu bearbeiten">
       <formula>NOT(ISERROR(SEARCH("zu bearbeiten",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="zu erstellen">
+    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="zu erstellen">
       <formula>NOT(ISERROR(SEARCH("zu erstellen",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="fertig zum Einfügen in Game">
+    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="fertig zum Einfügen in Game">
       <formula>NOT(ISERROR(SEARCH("fertig zum Einfügen in Game",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="zu erstellen">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="zu erstellen">
       <formula>NOT(ISERROR(SEARCH("zu erstellen",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="zu erstellen">
+    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="zu erstellen">
       <formula>NOT(ISERROR(SEARCH("zu erstellen",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1749,13 +1942,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="fertig zum Einfügen in Game">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="fertig zum Einfügen in Game">
       <formula>NOT(ISERROR(SEARCH("fertig zum Einfügen in Game",K25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="zu erstellen">
+    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="zu erstellen">
       <formula>NOT(ISERROR(SEARCH("zu erstellen",K25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="zu erstellen">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="zu erstellen">
       <formula>NOT(ISERROR(SEARCH("zu erstellen",K25)))</formula>
     </cfRule>
   </conditionalFormatting>
